--- a/Gestion Stock 2021/Gestion de Stock Berrouaghia/Suivie pose Compteur 2021.xlsx
+++ b/Gestion Stock 2021/Gestion de Stock Berrouaghia/Suivie pose Compteur 2021.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="668">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -337,9 +337,6 @@
     <t>NB(N°335/2020)</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
     <t>2020223883</t>
   </si>
   <si>
@@ -2246,6 +2243,87 @@
   </si>
   <si>
     <t>BB0249</t>
+  </si>
+  <si>
+    <t>B13295</t>
+  </si>
+  <si>
+    <t>B22815</t>
+  </si>
+  <si>
+    <t>B36858</t>
+  </si>
+  <si>
+    <t>B36859</t>
+  </si>
+  <si>
+    <t>BC0702</t>
+  </si>
+  <si>
+    <t>B22798</t>
+  </si>
+  <si>
+    <t>B42292</t>
+  </si>
+  <si>
+    <t>B36868</t>
+  </si>
+  <si>
+    <t>B13282</t>
+  </si>
+  <si>
+    <t>BC0726</t>
+  </si>
+  <si>
+    <t>B42291</t>
+  </si>
+  <si>
+    <t>B42300</t>
+  </si>
+  <si>
+    <t>BC0719</t>
+  </si>
+  <si>
+    <t>B13281</t>
+  </si>
+  <si>
+    <t>B22809</t>
+  </si>
+  <si>
+    <t>B10732</t>
+  </si>
+  <si>
+    <t>B13299</t>
+  </si>
+  <si>
+    <t>B36857</t>
+  </si>
+  <si>
+    <t>B22807</t>
+  </si>
+  <si>
+    <t>B22814</t>
+  </si>
+  <si>
+    <t>B33034</t>
+  </si>
+  <si>
+    <t>B13278</t>
+  </si>
+  <si>
+    <t>B13279</t>
+  </si>
+  <si>
+    <t>B13280</t>
+  </si>
+  <si>
+    <t>B42287</t>
+  </si>
+  <si>
+    <t>B13286</t>
+  </si>
+  <si>
+    <t>B13276</t>
   </si>
 </sst>
 </file>
@@ -3664,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
@@ -3694,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
@@ -3780,7 +3858,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
@@ -3838,7 +3916,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
@@ -3856,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -3867,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -4429,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4526,7 +4604,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -4576,25 +4654,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>75</v>
+        <v>653</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E7" s="16">
         <v>44473</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>400</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>401</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -4606,25 +4684,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>25</v>
+        <v>654</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E8" s="16">
         <v>44475</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>404</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>405</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -4636,25 +4714,25 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>67</v>
+        <v>655</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E9" s="16">
         <v>44480</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>407</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>408</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -4666,7 +4744,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>25</v>
+        <v>656</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
@@ -4678,13 +4756,13 @@
         <v>44481</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>409</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>410</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -4696,7 +4774,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
@@ -4708,13 +4786,13 @@
         <v>44482</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>411</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>412</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -4726,7 +4804,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>71</v>
+        <v>652</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>20</v>
@@ -4738,13 +4816,13 @@
         <v>44482</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>413</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>414</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -4756,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>36</v>
+        <v>651</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
@@ -4768,13 +4846,13 @@
         <v>44482</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>415</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>416</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -4786,7 +4864,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -4798,13 +4876,13 @@
         <v>44482</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>417</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>418</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -4816,7 +4894,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>25</v>
+        <v>650</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
@@ -4828,13 +4906,13 @@
         <v>44482</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>419</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>420</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -4845,7 +4923,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -4857,13 +4935,13 @@
         <v>44482</v>
       </c>
       <c r="F16" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>421</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>422</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -4874,7 +4952,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>20</v>
@@ -4886,13 +4964,13 @@
         <v>44482</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>423</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>424</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -4903,7 +4981,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>20</v>
@@ -4915,13 +4993,13 @@
         <v>44482</v>
       </c>
       <c r="F18" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>425</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>426</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -4932,7 +5010,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>36</v>
+        <v>648</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>20</v>
@@ -4944,13 +5022,13 @@
         <v>44483</v>
       </c>
       <c r="F19" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>427</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>428</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -4961,7 +5039,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>25</v>
+        <v>649</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
@@ -4973,13 +5051,13 @@
         <v>44483</v>
       </c>
       <c r="F20" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>429</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>430</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -4990,7 +5068,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>20</v>
@@ -5002,13 +5080,13 @@
         <v>44483</v>
       </c>
       <c r="F21" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>432</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>433</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -5019,7 +5097,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>67</v>
+        <v>646</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>20</v>
@@ -5031,13 +5109,13 @@
         <v>44483</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>434</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>435</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -5048,7 +5126,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>75</v>
+        <v>645</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>20</v>
@@ -5060,13 +5138,13 @@
         <v>44486</v>
       </c>
       <c r="F23" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -5077,7 +5155,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>36</v>
+        <v>644</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>20</v>
@@ -5089,13 +5167,13 @@
         <v>44493</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>438</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>439</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -5106,7 +5184,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>36</v>
+        <v>643</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>20</v>
@@ -5118,13 +5196,13 @@
         <v>44493</v>
       </c>
       <c r="F25" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>440</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>441</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -5135,7 +5213,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>67</v>
+        <v>642</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>20</v>
@@ -5147,13 +5225,13 @@
         <v>44495</v>
       </c>
       <c r="F26" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>442</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>443</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -5164,7 +5242,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>67</v>
+        <v>641</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>20</v>
@@ -5176,13 +5254,13 @@
         <v>44495</v>
       </c>
       <c r="F27" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>444</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>445</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -5193,7 +5271,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>20</v>
@@ -5220,7 +5298,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>20</v>
@@ -5247,7 +5325,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>20</v>
@@ -5274,25 +5352,25 @@
         <v>25</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>71</v>
+        <v>647</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E31" s="16">
         <v>44497</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>451</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5303,13 +5381,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E32" s="16">
         <v>44497</v>
@@ -5697,7 +5775,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -5753,19 +5831,19 @@
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E7" s="16">
         <v>44502</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>455</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>456</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -5777,19 +5855,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E8" s="16">
         <v>44502</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G8" s="18">
         <v>1</v>
@@ -5811,19 +5889,19 @@
         <v>20</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E9" s="16">
         <v>44507</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>462</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>463</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -5841,19 +5919,19 @@
         <v>20</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E10" s="16">
         <v>44508</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>460</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>461</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -5871,19 +5949,19 @@
         <v>20</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E11" s="16">
         <v>44510</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>465</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>466</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -5901,19 +5979,19 @@
         <v>20</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E12" s="16">
         <v>44510</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>469</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>470</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -5925,19 +6003,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E13" s="16">
         <v>44514</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G13" s="18">
         <v>1</v>
@@ -5965,13 +6043,13 @@
         <v>44517</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>473</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>474</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -5995,13 +6073,13 @@
         <v>44518</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>477</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>478</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -6024,13 +6102,13 @@
         <v>44518</v>
       </c>
       <c r="F16" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>479</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>480</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -6053,13 +6131,13 @@
         <v>44523</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>481</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>482</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -6082,13 +6160,13 @@
         <v>44523</v>
       </c>
       <c r="F18" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>483</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>484</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -6111,13 +6189,13 @@
         <v>44524</v>
       </c>
       <c r="F19" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>486</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -6140,13 +6218,13 @@
         <v>44525</v>
       </c>
       <c r="F20" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>487</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>488</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -6169,13 +6247,13 @@
         <v>44528</v>
       </c>
       <c r="F21" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>489</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>490</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -6198,13 +6276,13 @@
         <v>44528</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>491</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>492</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -6227,13 +6305,13 @@
         <v>44529</v>
       </c>
       <c r="F23" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -6764,7 +6842,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -6820,19 +6898,19 @@
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E7" s="16">
         <v>44536</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>497</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>498</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -6850,19 +6928,19 @@
         <v>20</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E8" s="16">
         <v>44537</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G8" s="18">
         <v>1</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -6880,19 +6958,19 @@
         <v>20</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E9" s="16">
         <v>44537</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G9" s="18">
         <v>1</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -6910,19 +6988,19 @@
         <v>20</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E10" s="16">
         <v>44538</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>507</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>508</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -6940,19 +7018,19 @@
         <v>20</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E11" s="16">
         <v>44538</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G11" s="18">
         <v>1</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -6964,13 +7042,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>512</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>513</v>
       </c>
       <c r="E12" s="16">
         <v>44539</v>
@@ -6998,19 +7076,19 @@
         <v>20</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E13" s="16">
         <v>44542</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>515</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>516</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -7028,19 +7106,19 @@
         <v>20</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E14" s="16">
         <v>44542</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G14" s="18">
         <v>1</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -7058,19 +7136,19 @@
         <v>20</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E15" s="16">
         <v>44543</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G15" s="18">
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -7087,19 +7165,19 @@
         <v>20</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E16" s="16">
         <v>44544</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G16" s="18">
         <v>1</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -7116,19 +7194,19 @@
         <v>20</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E17" s="16">
         <v>44545</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>525</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>526</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -7145,19 +7223,19 @@
         <v>20</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E18" s="16">
         <v>44546</v>
       </c>
       <c r="F18" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>528</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>529</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -7168,7 +7246,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>20</v>
@@ -7201,19 +7279,19 @@
         <v>20</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E20" s="16">
         <v>44549</v>
       </c>
       <c r="F20" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>533</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>534</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -7230,19 +7308,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E21" s="16">
         <v>44549</v>
       </c>
       <c r="F21" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>536</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>537</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -7259,19 +7337,19 @@
         <v>20</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E22" s="16">
         <v>44549</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>539</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>540</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -7282,13 +7360,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>542</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>543</v>
       </c>
       <c r="E23" s="16">
         <v>44549</v>
@@ -7315,19 +7393,19 @@
         <v>20</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E24" s="16">
         <v>44555</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>545</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>546</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -7344,19 +7422,19 @@
         <v>20</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E25" s="16">
         <v>44555</v>
       </c>
       <c r="F25" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>548</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>549</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -7367,10 +7445,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D26" s="14">
         <v>2020002832</v>
@@ -7394,10 +7472,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D27" s="14">
         <v>2020002834</v>
@@ -7421,10 +7499,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D28" s="14">
         <v>2020002833</v>
@@ -7448,10 +7526,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D29" s="14">
         <v>2020002837</v>
@@ -7475,10 +7553,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D30" s="14">
         <v>2020002835</v>
@@ -7502,13 +7580,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E31" s="16">
         <v>44558</v>
@@ -7816,7 +7894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -8075,7 +8153,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
@@ -8105,7 +8183,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>20</v>
@@ -8191,25 +8269,25 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="16">
         <v>44235</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="18">
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -8220,25 +8298,25 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="16">
         <v>44235</v>
       </c>
       <c r="F16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -8249,25 +8327,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="16">
         <v>44235</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>78</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -8278,25 +8356,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="16">
         <v>44237</v>
       </c>
       <c r="F18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -8307,25 +8385,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="16">
         <v>44241</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" s="18">
         <v>1</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -8336,25 +8414,25 @@
         <v>14</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="16">
         <v>44241</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="18">
         <v>1</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -8365,25 +8443,25 @@
         <v>15</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="16">
         <v>44241</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="18">
         <v>1</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -8394,25 +8472,25 @@
         <v>16</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="16">
         <v>44241</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="18">
         <v>1</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -8423,25 +8501,25 @@
         <v>17</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="16">
         <v>44241</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="18">
         <v>1</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -8452,25 +8530,25 @@
         <v>18</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="16">
         <v>44241</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" s="18">
         <v>1</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -8481,25 +8559,25 @@
         <v>19</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="16">
         <v>44241</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="18">
         <v>1</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -8510,25 +8588,25 @@
         <v>20</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="16">
         <v>44241</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" s="18">
         <v>1</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -8539,25 +8617,25 @@
         <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="16">
         <v>44241</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" s="18">
         <v>1</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -8568,25 +8646,25 @@
         <v>22</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="16">
         <v>44241</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G28" s="18">
         <v>1</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -8597,19 +8675,19 @@
         <v>23</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="D29" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="E29" s="16">
         <v>44242</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" s="18">
         <v>1</v>
@@ -8624,13 +8702,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="E30" s="16">
         <v>44243</v>
@@ -8651,13 +8729,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="E31" s="16">
         <v>44243</v>
@@ -8678,25 +8756,25 @@
         <v>26</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="16">
         <v>44248</v>
       </c>
       <c r="F32" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1</v>
+      </c>
+      <c r="H32" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>108</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -8707,13 +8785,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="E33" s="16">
         <v>44249</v>
@@ -8734,13 +8812,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="E34" s="16">
         <v>44250</v>
@@ -9047,7 +9125,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -9097,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>20</v>
@@ -9125,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
@@ -9137,13 +9215,13 @@
         <v>44257</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -9155,7 +9233,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
@@ -9167,13 +9245,13 @@
         <v>44258</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>117</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>118</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -9185,25 +9263,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="16">
         <v>44263</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>121</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -9215,25 +9293,25 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="16">
         <v>44265</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -9245,25 +9323,25 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="16">
         <v>44271</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -9275,25 +9353,25 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="16">
         <v>44271</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>129</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>130</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -9305,25 +9383,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="16">
         <v>44272</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="18">
         <v>1</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -9335,25 +9413,25 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="16">
         <v>44272</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="18">
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -9872,7 +9950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -9969,7 +10047,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -10019,25 +10097,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="16">
         <v>44287</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="18">
         <v>1</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -10049,7 +10127,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
@@ -10061,13 +10139,13 @@
         <v>44290</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="18">
         <v>1</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -10079,13 +10157,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="16">
         <v>44293</v>
@@ -10107,25 +10185,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="16">
         <v>44294</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G10" s="18">
         <v>1</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -10137,13 +10215,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="16">
         <v>44300</v>
@@ -10165,13 +10243,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="E12" s="16">
         <v>44300</v>
@@ -10193,13 +10271,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="16">
         <v>44300</v>
@@ -10221,13 +10299,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>151</v>
       </c>
       <c r="E14" s="16">
         <v>44300</v>
@@ -10249,13 +10327,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="E15" s="16">
         <v>44300</v>
@@ -10276,13 +10354,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="E16" s="16">
         <v>44300</v>
@@ -10303,13 +10381,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>165</v>
       </c>
       <c r="E17" s="16">
         <v>44301</v>
@@ -10330,13 +10408,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="E18" s="16">
         <v>44301</v>
@@ -10357,13 +10435,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="E19" s="16">
         <v>44301</v>
@@ -10384,13 +10462,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="E20" s="16">
         <v>44301</v>
@@ -10411,13 +10489,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>177</v>
       </c>
       <c r="E21" s="16">
         <v>44304</v>
@@ -10438,13 +10516,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>169</v>
       </c>
       <c r="E22" s="16">
         <v>44304</v>
@@ -10465,13 +10543,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="E23" s="16">
         <v>44304</v>
@@ -10492,13 +10570,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>175</v>
       </c>
       <c r="E24" s="16">
         <v>44304</v>
@@ -10519,13 +10597,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>173</v>
       </c>
       <c r="E25" s="16">
         <v>44304</v>
@@ -10546,13 +10624,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>179</v>
       </c>
       <c r="E26" s="16">
         <v>44305</v>
@@ -10573,25 +10651,25 @@
         <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="16">
         <v>44305</v>
       </c>
       <c r="F27" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="26" t="s">
         <v>181</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>182</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -10602,25 +10680,25 @@
         <v>22</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="16">
         <v>44306</v>
       </c>
       <c r="F28" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>191</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -10631,25 +10709,25 @@
         <v>23</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="16">
         <v>44306</v>
       </c>
       <c r="F29" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>185</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -10660,25 +10738,25 @@
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E30" s="16">
         <v>44306</v>
       </c>
       <c r="F30" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -10689,25 +10767,25 @@
         <v>25</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="16">
         <v>44306</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="H31" s="26" t="s">
         <v>187</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>188</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -10718,13 +10796,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E32" s="16">
         <v>44307</v>
@@ -10745,13 +10823,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>197</v>
       </c>
       <c r="E33" s="16">
         <v>44307</v>
@@ -10772,25 +10850,25 @@
         <v>28</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E34" s="16">
         <v>44307</v>
       </c>
       <c r="F34" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -10801,25 +10879,25 @@
         <v>29</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35" s="16">
         <v>44307</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G35" s="18">
         <v>1</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -10836,19 +10914,19 @@
         <v>20</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E36" s="16">
         <v>44308</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G36" s="18">
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -10859,25 +10937,25 @@
         <v>31</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E37" s="16">
         <v>44311</v>
       </c>
       <c r="F37" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -10888,25 +10966,25 @@
         <v>32</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E38" s="16">
         <v>44312</v>
       </c>
       <c r="F38" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1</v>
+      </c>
+      <c r="H38" s="27" t="s">
         <v>213</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -10915,25 +10993,25 @@
         <v>33</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E39" s="16">
         <v>44313</v>
       </c>
       <c r="F39" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1</v>
+      </c>
+      <c r="H39" s="27" t="s">
         <v>217</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -10942,25 +11020,25 @@
         <v>34</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E40" s="16">
         <v>44313</v>
       </c>
       <c r="F40" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1</v>
+      </c>
+      <c r="H40" s="27" t="s">
         <v>219</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -10969,25 +11047,25 @@
         <v>35</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E41" s="16">
         <v>44314</v>
       </c>
       <c r="F41" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1</v>
+      </c>
+      <c r="H41" s="27" t="s">
         <v>222</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -10996,25 +11074,25 @@
         <v>36</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E42" s="16">
         <v>44314</v>
       </c>
       <c r="F42" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1</v>
+      </c>
+      <c r="H42" s="27" t="s">
         <v>225</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -11023,25 +11101,25 @@
         <v>37</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E43" s="16">
         <v>44315</v>
       </c>
       <c r="F43" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1</v>
+      </c>
+      <c r="H43" s="27" t="s">
         <v>228</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -11206,7 +11284,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -11256,25 +11334,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" s="16">
         <v>44320</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>233</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -11286,7 +11364,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
@@ -11298,13 +11376,13 @@
         <v>44321</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>234</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>235</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -11316,7 +11394,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
@@ -11328,13 +11406,13 @@
         <v>44325</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -11346,7 +11424,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
@@ -11358,13 +11436,13 @@
         <v>44325</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>238</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>239</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -11376,7 +11454,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
@@ -11388,13 +11466,13 @@
         <v>44325</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>240</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>241</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -11406,13 +11484,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="14">
         <v>30</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E12" s="16">
         <v>44326</v>
@@ -11434,7 +11512,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
@@ -11446,13 +11524,13 @@
         <v>44326</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>244</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>245</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -11464,13 +11542,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="E14" s="16">
         <v>44327</v>
@@ -11492,7 +11570,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
@@ -11504,13 +11582,13 @@
         <v>44327</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>248</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>249</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -11521,13 +11599,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>251</v>
       </c>
       <c r="E16" s="16">
         <v>44332</v>
@@ -12050,7 +12128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -12147,7 +12225,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -12197,13 +12275,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>254</v>
       </c>
       <c r="E7" s="16">
         <v>44350</v>
@@ -12225,7 +12303,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
@@ -12237,13 +12315,13 @@
         <v>44354</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>255</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>256</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -12255,7 +12333,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
@@ -12267,13 +12345,13 @@
         <v>44360</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>257</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>258</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -12285,7 +12363,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
@@ -12297,13 +12375,13 @@
         <v>44361</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G10" s="18">
         <v>1</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -12315,7 +12393,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
@@ -12343,7 +12421,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>20</v>
@@ -12371,7 +12449,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
@@ -12399,7 +12477,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -12427,7 +12505,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
@@ -12454,7 +12532,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -12481,7 +12559,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>20</v>
@@ -12535,7 +12613,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>20</v>
@@ -12562,7 +12640,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
@@ -12589,7 +12667,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>20</v>
@@ -12601,13 +12679,13 @@
         <v>44364</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G21" s="18">
         <v>1</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -12618,7 +12696,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>20</v>
@@ -12645,7 +12723,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>20</v>
@@ -12672,7 +12750,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>20</v>
@@ -12699,7 +12777,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>20</v>
@@ -12726,7 +12804,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>20</v>
@@ -12753,13 +12831,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="16">
         <v>44371</v>
@@ -12780,13 +12858,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E28" s="16">
         <v>44371</v>
@@ -12807,13 +12885,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E29" s="16">
         <v>44371</v>
@@ -12834,13 +12912,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="D30" s="21" t="s">
         <v>280</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>281</v>
       </c>
       <c r="E30" s="16">
         <v>44377</v>
@@ -13222,7 +13300,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -13272,25 +13350,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="16">
         <v>44388</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>284</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>285</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -13302,7 +13380,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
@@ -13314,13 +13392,13 @@
         <v>44388</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>287</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>288</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -13332,7 +13410,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
@@ -13344,13 +13422,13 @@
         <v>44395</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>289</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>290</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -13362,7 +13440,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
@@ -13374,13 +13452,13 @@
         <v>44395</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>291</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>292</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -13392,7 +13470,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
@@ -13404,13 +13482,13 @@
         <v>44403</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>293</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>294</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -13422,13 +13500,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>295</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>296</v>
       </c>
       <c r="E12" s="16">
         <v>44406</v>
@@ -14023,7 +14101,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14119,7 +14197,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -14169,25 +14247,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" s="16">
         <v>44409</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>311</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>312</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -14199,7 +14277,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
@@ -14211,13 +14289,13 @@
         <v>44411</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>313</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>314</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -14229,7 +14307,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
@@ -14241,13 +14319,13 @@
         <v>44412</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>315</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>316</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -14259,7 +14337,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
@@ -14271,13 +14349,13 @@
         <v>44413</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>317</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>318</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -14289,7 +14367,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
@@ -14301,13 +14379,13 @@
         <v>44413</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>319</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>320</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -14319,25 +14397,25 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E12" s="16">
         <v>44413</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>321</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>322</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -14349,7 +14427,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
@@ -14361,13 +14439,13 @@
         <v>44413</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G13" s="18">
         <v>1</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -14379,7 +14457,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -14391,13 +14469,13 @@
         <v>44417</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>324</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>325</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -14409,7 +14487,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
@@ -14421,13 +14499,13 @@
         <v>44417</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>326</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>327</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -14438,7 +14516,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -14456,7 +14534,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -14467,7 +14545,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>20</v>
@@ -14485,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -14496,7 +14574,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>20</v>
@@ -14514,7 +14592,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -14525,7 +14603,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>20</v>
@@ -14543,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -14554,7 +14632,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
@@ -14572,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -14583,7 +14661,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>20</v>
@@ -14601,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -14612,7 +14690,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>20</v>
@@ -14624,13 +14702,13 @@
         <v>44420</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -14641,7 +14719,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>20</v>
@@ -14659,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -14670,7 +14748,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>20</v>
@@ -14682,13 +14760,13 @@
         <v>44426</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>331</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>332</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -14699,7 +14777,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>20</v>
@@ -14711,13 +14789,13 @@
         <v>44426</v>
       </c>
       <c r="F25" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>333</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>334</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -14728,7 +14806,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>20</v>
@@ -14740,13 +14818,13 @@
         <v>44431</v>
       </c>
       <c r="F26" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>335</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>336</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -14757,25 +14835,25 @@
         <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E27" s="16">
         <v>44431</v>
       </c>
       <c r="F27" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="26" t="s">
         <v>337</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>338</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -14786,25 +14864,25 @@
         <v>22</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E28" s="16">
         <v>44431</v>
       </c>
       <c r="F28" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="26" t="s">
         <v>339</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>340</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -14815,25 +14893,25 @@
         <v>23</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E29" s="16">
         <v>44432</v>
       </c>
       <c r="F29" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>341</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>342</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -14844,13 +14922,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E30" s="16">
         <v>44432</v>
@@ -14871,25 +14949,25 @@
         <v>25</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E31" s="16">
         <v>44432</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="H31" s="26" t="s">
         <v>343</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>344</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -14900,19 +14978,19 @@
         <v>26</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E32" s="16">
         <v>44433</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G32" s="18">
         <v>1</v>
@@ -15163,8 +15241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15260,7 +15338,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -15310,25 +15388,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>25</v>
+        <v>657</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E7" s="16">
         <v>44444</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>351</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>352</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -15340,7 +15418,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>36</v>
+        <v>658</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
@@ -15352,13 +15430,13 @@
         <v>44445</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>353</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>354</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -15370,7 +15448,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
@@ -15398,7 +15476,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>67</v>
+        <v>659</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
@@ -15410,13 +15488,13 @@
         <v>44451</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>356</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>357</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -15428,7 +15506,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>67</v>
+        <v>660</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
@@ -15440,13 +15518,13 @@
         <v>44451</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>358</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>359</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -15458,25 +15536,25 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>36</v>
+        <v>661</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E12" s="16">
         <v>44452</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -15488,7 +15566,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>25</v>
+        <v>662</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
@@ -15500,13 +15578,13 @@
         <v>44453</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>364</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -15518,7 +15596,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>25</v>
+        <v>663</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -15530,13 +15608,13 @@
         <v>44453</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -15548,7 +15626,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>25</v>
+        <v>664</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
@@ -15560,13 +15638,13 @@
         <v>44453</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>367</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>368</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -15577,7 +15655,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>36</v>
+        <v>665</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -15589,13 +15667,13 @@
         <v>44454</v>
       </c>
       <c r="F16" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>370</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -15606,7 +15684,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>25</v>
+        <v>666</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>20</v>
@@ -15618,13 +15696,13 @@
         <v>44454</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>372</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -15635,7 +15713,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>25</v>
+        <v>667</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>20</v>
@@ -15647,13 +15725,13 @@
         <v>44460</v>
       </c>
       <c r="F18" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>374</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -15664,7 +15742,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C19" s="14">
         <v>65</v>
@@ -15703,13 +15781,13 @@
         <v>44461</v>
       </c>
       <c r="F20" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>377</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -15732,13 +15810,13 @@
         <v>44461</v>
       </c>
       <c r="F21" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>375</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>376</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -15761,13 +15839,13 @@
         <v>44462</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>382</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -15790,13 +15868,13 @@
         <v>44462</v>
       </c>
       <c r="F23" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -15807,25 +15885,25 @@
         <v>18</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E24" s="16">
         <v>44465</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>385</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>386</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -15848,13 +15926,13 @@
         <v>44465</v>
       </c>
       <c r="F25" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>387</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>388</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -15877,13 +15955,13 @@
         <v>44465</v>
       </c>
       <c r="F26" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>389</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>390</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -15906,13 +15984,13 @@
         <v>44465</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G27" s="18">
         <v>1</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -15923,7 +16001,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>20</v>
@@ -15935,13 +16013,13 @@
         <v>44466</v>
       </c>
       <c r="F28" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>391</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>392</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -15964,13 +16042,13 @@
         <v>44467</v>
       </c>
       <c r="F29" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -15981,13 +16059,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>395</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>396</v>
       </c>
       <c r="E30" s="16">
         <v>44467</v>
